--- a/xls-report/src/main/resources/templates/workplan_template.xlsx
+++ b/xls-report/src/main/resources/templates/workplan_template.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23535" windowHeight="13170"/>
+    <workbookView windowWidth="17082" windowHeight="10362"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t>深圳东兴富科技有限公司</t>
   </si>
@@ -105,6 +105,12 @@
   </si>
   <si>
     <t>t.memo}}</t>
+  </si>
+  <si>
+    <t>66666666666666666666666{{sumMoney}}</t>
+  </si>
+  <si>
+    <t>j'j'j'j'j'j'j'j'j'j'j'j'j'j'j'j'j'j'j</t>
   </si>
   <si>
     <t>制表：</t>
@@ -121,11 +127,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="[$-409]dd\-mmm\-yy;@"/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="[$-409]dd\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -174,53 +180,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -229,13 +191,6 @@
       <b/>
       <sz val="11"/>
       <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -249,8 +204,15 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -259,6 +221,20 @@
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -272,6 +248,20 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -280,9 +270,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -290,13 +303,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -311,6 +317,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -323,25 +335,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -353,139 +479,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -563,11 +569,35 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.399975585192419"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -587,6 +617,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -598,6 +637,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -627,48 +675,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.399975585192419"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -677,145 +683,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -855,6 +861,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1228,13 +1237,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M7"/>
+  <dimension ref="A1:M8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="7"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
     <col min="2" max="2" width="10.125" customWidth="1"/>
@@ -1257,7 +1266,7 @@
       <c r="L1" s="2"/>
       <c r="M1" s="2"/>
     </row>
-    <row r="2" ht="25.5" spans="1:13">
+    <row r="2" ht="26.1" spans="1:13">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -1274,7 +1283,7 @@
       <c r="L2" s="3"/>
       <c r="M2" s="3"/>
     </row>
-    <row r="3" ht="15" spans="1:13">
+    <row r="3" ht="15.75" spans="1:13">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -1293,7 +1302,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" ht="27.75" spans="1:13">
+    <row r="4" ht="29.05" spans="1:13">
       <c r="A4" s="4" t="s">
         <v>4</v>
       </c>
@@ -1375,26 +1384,41 @@
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="2:13">
-      <c r="B7" t="s">
+    <row r="6" spans="1:1">
+      <c r="A6" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="C7" s="7" t="s">
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="7" t="s">
         <v>31</v>
       </c>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
       <c r="D7" s="7"/>
-      <c r="K7" s="7" t="s">
+      <c r="E7" s="7"/>
+    </row>
+    <row r="8" spans="2:13">
+      <c r="B8" t="s">
         <v>32</v>
       </c>
-      <c r="L7" s="7"/>
-      <c r="M7" s="7"/>
+      <c r="C8" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" s="7"/>
+      <c r="K8" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="L8" s="7"/>
+      <c r="M8" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A2:M2"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="K7:M7"/>
+    <mergeCell ref="A7:E7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="K8:M8"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter alignWithMargins="0"/>
@@ -1411,7 +1435,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter alignWithMargins="0"/>
